--- a/data/pca/factorExposure/factorExposure_2010-04-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-04-26.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01594719064678063</v>
+        <v>-0.0170922603945116</v>
       </c>
       <c r="C2">
-        <v>0.003746920413631951</v>
+        <v>-0.001096405634704685</v>
       </c>
       <c r="D2">
-        <v>-0.01123047936685662</v>
+        <v>-0.007978414948358103</v>
       </c>
       <c r="E2">
-        <v>-0.005514338953116396</v>
+        <v>-0.0003071177863772943</v>
       </c>
       <c r="F2">
-        <v>0.02628560084534614</v>
+        <v>0.01107142805943524</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1166525919250442</v>
+        <v>-0.09305765234228405</v>
       </c>
       <c r="C4">
-        <v>-0.0619905202134875</v>
+        <v>-0.01694762137477036</v>
       </c>
       <c r="D4">
-        <v>-0.06070007288912416</v>
+        <v>-0.08327493869067948</v>
       </c>
       <c r="E4">
-        <v>0.0160681301973469</v>
+        <v>0.03011958399939836</v>
       </c>
       <c r="F4">
-        <v>0.01940364976515331</v>
+        <v>-0.03225896112998889</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1232749662325097</v>
+        <v>-0.1529295849385543</v>
       </c>
       <c r="C6">
-        <v>-0.01717332403596932</v>
+        <v>-0.02480846187376187</v>
       </c>
       <c r="D6">
-        <v>-0.03350690948536408</v>
+        <v>0.02136127819556394</v>
       </c>
       <c r="E6">
-        <v>-0.03662547112259307</v>
+        <v>0.009640672180315852</v>
       </c>
       <c r="F6">
-        <v>-0.04479257361097663</v>
+        <v>-0.0404688105260014</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06809665832358425</v>
+        <v>-0.05964219151749554</v>
       </c>
       <c r="C7">
-        <v>-0.03950145339725846</v>
+        <v>0.0003592148193685309</v>
       </c>
       <c r="D7">
-        <v>-0.0763199047821414</v>
+        <v>-0.05157370707041094</v>
       </c>
       <c r="E7">
-        <v>-0.01241576701187026</v>
+        <v>0.01488567082801054</v>
       </c>
       <c r="F7">
-        <v>0.04878349009304763</v>
+        <v>-0.05353722067140974</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05436222543327633</v>
+        <v>-0.05855623031806238</v>
       </c>
       <c r="C8">
-        <v>-0.02904605681743141</v>
+        <v>0.01276723678184476</v>
       </c>
       <c r="D8">
-        <v>-0.0478255166758163</v>
+        <v>-0.03049108312562964</v>
       </c>
       <c r="E8">
-        <v>0.018029484853437</v>
+        <v>0.01517367547027096</v>
       </c>
       <c r="F8">
-        <v>-0.01756667242545852</v>
+        <v>0.02992897548412322</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08159182272089532</v>
+        <v>-0.07113454828483085</v>
       </c>
       <c r="C9">
-        <v>-0.04074645540375355</v>
+        <v>-0.01305585399446459</v>
       </c>
       <c r="D9">
-        <v>-0.04686873963527675</v>
+        <v>-0.08277580779972479</v>
       </c>
       <c r="E9">
-        <v>0.02039261522387509</v>
+        <v>0.02477717972916813</v>
       </c>
       <c r="F9">
-        <v>0.009707692897682198</v>
+        <v>-0.05434218367986384</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.1174159037195202</v>
+        <v>-0.09443435155643377</v>
       </c>
       <c r="C10">
-        <v>0.1359485861888285</v>
+        <v>-0.01684294038429116</v>
       </c>
       <c r="D10">
-        <v>0.08532578443425479</v>
+        <v>0.1716337845401056</v>
       </c>
       <c r="E10">
-        <v>-0.02913430190637722</v>
+        <v>-0.03863662198531742</v>
       </c>
       <c r="F10">
-        <v>0.03035153111515398</v>
+        <v>0.05297184376987012</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.07636434664569969</v>
+        <v>-0.0875298648426813</v>
       </c>
       <c r="C11">
-        <v>-0.03208101652955018</v>
+        <v>-0.01241425044732026</v>
       </c>
       <c r="D11">
-        <v>-0.07401936083174038</v>
+        <v>-0.1141904578764678</v>
       </c>
       <c r="E11">
-        <v>0.03701545954113439</v>
+        <v>0.04860109528477868</v>
       </c>
       <c r="F11">
-        <v>1.721288394957043e-06</v>
+        <v>-0.02102392994294875</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.07088759412655829</v>
+        <v>-0.09263389757471961</v>
       </c>
       <c r="C12">
-        <v>-0.03234877144901625</v>
+        <v>-0.01027722881353833</v>
       </c>
       <c r="D12">
-        <v>-0.07609035978097566</v>
+        <v>-0.1214919730102571</v>
       </c>
       <c r="E12">
-        <v>0.05961558901628165</v>
+        <v>0.04808821576302087</v>
       </c>
       <c r="F12">
-        <v>0.02648991423276393</v>
+        <v>-0.02307282383197232</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.02986528097206392</v>
+        <v>-0.04260454446045566</v>
       </c>
       <c r="C13">
-        <v>-0.0213078052380543</v>
+        <v>-0.003946679929379168</v>
       </c>
       <c r="D13">
-        <v>-0.02188067939875993</v>
+        <v>-0.04797362631199626</v>
       </c>
       <c r="E13">
-        <v>-0.01315176631895114</v>
+        <v>-0.01177171686872706</v>
       </c>
       <c r="F13">
-        <v>0.01671209020186575</v>
+        <v>-0.01389542400386046</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.03948842130551704</v>
+        <v>-0.0219228221397967</v>
       </c>
       <c r="C14">
-        <v>-0.0207885774128459</v>
+        <v>-0.01461094018889986</v>
       </c>
       <c r="D14">
-        <v>-0.02382489661239156</v>
+        <v>-0.03230168098075752</v>
       </c>
       <c r="E14">
-        <v>0.02830609246525353</v>
+        <v>0.01894311269100983</v>
       </c>
       <c r="F14">
-        <v>-0.001779495204979521</v>
+        <v>-0.01814497721573004</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.01636304454626739</v>
+        <v>-0.03198894438521216</v>
       </c>
       <c r="C15">
-        <v>-0.01142091955628623</v>
+        <v>-0.005504370532976796</v>
       </c>
       <c r="D15">
-        <v>-0.01256809559506028</v>
+        <v>-0.04540827896287013</v>
       </c>
       <c r="E15">
-        <v>-0.0579657107336216</v>
+        <v>0.00913956948127786</v>
       </c>
       <c r="F15">
-        <v>0.01516971029378683</v>
+        <v>-0.03179091200061071</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.08136964600507784</v>
+        <v>-0.07381769625619625</v>
       </c>
       <c r="C16">
-        <v>-0.02574012262146632</v>
+        <v>-0.003953215686690651</v>
       </c>
       <c r="D16">
-        <v>-0.08380879862170501</v>
+        <v>-0.1165581364351201</v>
       </c>
       <c r="E16">
-        <v>0.05390662684530807</v>
+        <v>0.06324517354338546</v>
       </c>
       <c r="F16">
-        <v>-0.01030651353387207</v>
+        <v>-0.03114192050815172</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02180162050681315</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003727990917697749</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.02079239611325135</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.01075370918884237</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.02364085993155937</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.04993919266330962</v>
+        <v>-0.06112756638844012</v>
       </c>
       <c r="C20">
-        <v>-0.04958099074964703</v>
+        <v>-0.001804521601462918</v>
       </c>
       <c r="D20">
-        <v>-0.01282838569687302</v>
+        <v>-0.07423862692707375</v>
       </c>
       <c r="E20">
-        <v>-0.01651193947485341</v>
+        <v>0.05590767801206709</v>
       </c>
       <c r="F20">
-        <v>0.0314185430215061</v>
+        <v>-0.02867194317236298</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03024722951641887</v>
+        <v>-0.03881658668318636</v>
       </c>
       <c r="C21">
-        <v>-0.02322000765361783</v>
+        <v>-0.007625497043217135</v>
       </c>
       <c r="D21">
-        <v>0.006766151398147377</v>
+        <v>-0.03551596178824914</v>
       </c>
       <c r="E21">
-        <v>0.02847719227901787</v>
+        <v>-0.007765051859583967</v>
       </c>
       <c r="F21">
-        <v>-0.00555852568607665</v>
+        <v>0.01987011863367492</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.0387908684744199</v>
+        <v>-0.04176579062001144</v>
       </c>
       <c r="C22">
-        <v>0.02063753260680416</v>
+        <v>-5.772543439028568e-05</v>
       </c>
       <c r="D22">
-        <v>-0.03048191231876787</v>
+        <v>-0.002982202605700268</v>
       </c>
       <c r="E22">
-        <v>-0.6115604375014034</v>
+        <v>0.02907926581912073</v>
       </c>
       <c r="F22">
-        <v>0.1465234510327838</v>
+        <v>0.009949692709458934</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.03932386997839588</v>
+        <v>-0.04182722784082659</v>
       </c>
       <c r="C23">
-        <v>0.02060661601924115</v>
+        <v>-8.256977315073841e-05</v>
       </c>
       <c r="D23">
-        <v>-0.0324830864282741</v>
+        <v>-0.003102998881258375</v>
       </c>
       <c r="E23">
-        <v>-0.6139594414802911</v>
+        <v>0.02942928344823286</v>
       </c>
       <c r="F23">
-        <v>0.1464108368766418</v>
+        <v>0.009491897999575909</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08142483234846</v>
+        <v>-0.08028747317889968</v>
       </c>
       <c r="C24">
-        <v>-0.04073373541302349</v>
+        <v>-0.004263280279432805</v>
       </c>
       <c r="D24">
-        <v>-0.06244204585845992</v>
+        <v>-0.1173709474800094</v>
       </c>
       <c r="E24">
-        <v>0.04690867995241325</v>
+        <v>0.05102898595488754</v>
       </c>
       <c r="F24">
-        <v>0.0002643944654029082</v>
+        <v>-0.0239841589032241</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08489107938778939</v>
+        <v>-0.08498028216202151</v>
       </c>
       <c r="C25">
-        <v>-0.03438109853706867</v>
+        <v>-0.006279275735147007</v>
       </c>
       <c r="D25">
-        <v>-0.07396536053218351</v>
+        <v>-0.1059197272856164</v>
       </c>
       <c r="E25">
-        <v>0.06215644994728485</v>
+        <v>0.03418902569575805</v>
       </c>
       <c r="F25">
-        <v>0.01802302777352652</v>
+        <v>-0.03121918604913199</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.04196994777681932</v>
+        <v>-0.05543260746115224</v>
       </c>
       <c r="C26">
-        <v>-0.001110363111208777</v>
+        <v>-0.0152052399601918</v>
       </c>
       <c r="D26">
-        <v>0.008217875181393797</v>
+        <v>-0.03606474724033298</v>
       </c>
       <c r="E26">
-        <v>-0.01250792158138252</v>
+        <v>0.0284287429093301</v>
       </c>
       <c r="F26">
-        <v>-0.0249636132342282</v>
+        <v>0.00797682874115932</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1381423430480843</v>
+        <v>-0.1425986509713098</v>
       </c>
       <c r="C28">
-        <v>0.2639141197567558</v>
+        <v>-0.01481772123319792</v>
       </c>
       <c r="D28">
-        <v>0.1232631479431441</v>
+        <v>0.2672600937427634</v>
       </c>
       <c r="E28">
-        <v>0.01164344255635686</v>
+        <v>-0.06890772044517698</v>
       </c>
       <c r="F28">
-        <v>-0.0583767087583908</v>
+        <v>-0.03085175008498835</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.03324627808851112</v>
+        <v>-0.02691426641059029</v>
       </c>
       <c r="C29">
-        <v>-0.01097106122861432</v>
+        <v>-0.008814758312377021</v>
       </c>
       <c r="D29">
-        <v>-0.03249164164645396</v>
+        <v>-0.03104184190177968</v>
       </c>
       <c r="E29">
-        <v>0.02987476700069576</v>
+        <v>0.0118792981033277</v>
       </c>
       <c r="F29">
-        <v>0.04200711976980816</v>
+        <v>0.01258802719356766</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.09595065623076028</v>
+        <v>-0.06361661594931414</v>
       </c>
       <c r="C30">
-        <v>-0.05436361697728326</v>
+        <v>-0.005768973804934134</v>
       </c>
       <c r="D30">
-        <v>-0.1025256245421058</v>
+        <v>-0.08270164120391667</v>
       </c>
       <c r="E30">
-        <v>0.05769422211394853</v>
+        <v>0.02484128173153961</v>
       </c>
       <c r="F30">
-        <v>-0.052535591840858</v>
+        <v>-0.1073771163113328</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.03036564185269038</v>
+        <v>-0.04841725928704235</v>
       </c>
       <c r="C31">
-        <v>-0.03597904902909017</v>
+        <v>-0.0151186618095073</v>
       </c>
       <c r="D31">
-        <v>-0.02529206278525089</v>
+        <v>-0.02789862996488713</v>
       </c>
       <c r="E31">
-        <v>0.001327203706343626</v>
+        <v>0.02744533075027547</v>
       </c>
       <c r="F31">
-        <v>0.02174587213304086</v>
+        <v>0.004096195856856493</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.05523234988953271</v>
+        <v>-0.04767766241743205</v>
       </c>
       <c r="C32">
-        <v>-0.03040947509695779</v>
+        <v>-0.0003280471311005174</v>
       </c>
       <c r="D32">
-        <v>0.005636330253057244</v>
+        <v>-0.03020425886547709</v>
       </c>
       <c r="E32">
-        <v>0.04046187320353855</v>
+        <v>0.02950681454629833</v>
       </c>
       <c r="F32">
-        <v>-0.06742428978009041</v>
+        <v>-0.0007634787211340876</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.08665160363228142</v>
+        <v>-0.09019738739646642</v>
       </c>
       <c r="C33">
-        <v>-0.01578915172076391</v>
+        <v>-0.009455436233680588</v>
       </c>
       <c r="D33">
-        <v>-0.08839124447113368</v>
+        <v>-0.09367672515680023</v>
       </c>
       <c r="E33">
-        <v>0.02760739141231789</v>
+        <v>0.04692557680757161</v>
       </c>
       <c r="F33">
-        <v>0.01676608724570904</v>
+        <v>-0.04202709611158525</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.07026902864890798</v>
+        <v>-0.06814586692291585</v>
       </c>
       <c r="C34">
-        <v>-0.02047028830325623</v>
+        <v>-0.01243540261776826</v>
       </c>
       <c r="D34">
-        <v>-0.0596621767705453</v>
+        <v>-0.0980209278742116</v>
       </c>
       <c r="E34">
-        <v>0.05311653809385231</v>
+        <v>0.03578106151282686</v>
       </c>
       <c r="F34">
-        <v>0.001657336293600405</v>
+        <v>-0.04354373224005106</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.01397489312631241</v>
+        <v>-0.02443718488086603</v>
       </c>
       <c r="C35">
-        <v>-0.005803631913219399</v>
+        <v>-0.002565987895695644</v>
       </c>
       <c r="D35">
-        <v>-0.02181605325543401</v>
+        <v>-0.0114403288404658</v>
       </c>
       <c r="E35">
-        <v>0.009232846778384126</v>
+        <v>0.01147963718754631</v>
       </c>
       <c r="F35">
-        <v>0.02246476701425745</v>
+        <v>-0.009841355242006612</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02487626497617151</v>
+        <v>-0.02414822807351424</v>
       </c>
       <c r="C36">
-        <v>-0.01262903824666661</v>
+        <v>-0.00744146349909477</v>
       </c>
       <c r="D36">
-        <v>-0.01445345032768642</v>
+        <v>-0.03814119765633101</v>
       </c>
       <c r="E36">
-        <v>-0.001018061638148753</v>
+        <v>0.01732339038137305</v>
       </c>
       <c r="F36">
-        <v>-0.00204332586932774</v>
+        <v>-0.011009004313583</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.008935924745617213</v>
+        <v>-0.001655626541952726</v>
       </c>
       <c r="C38">
-        <v>-0.008188057103183436</v>
+        <v>-0.0002706630842488251</v>
       </c>
       <c r="D38">
-        <v>-0.01450265022825604</v>
+        <v>-0.001242640522877385</v>
       </c>
       <c r="E38">
-        <v>-0.02256004910406025</v>
+        <v>0.001521110461067441</v>
       </c>
       <c r="F38">
-        <v>0.0349134975120076</v>
+        <v>0.0006080233051636684</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1136363244983699</v>
+        <v>-0.1090714750650292</v>
       </c>
       <c r="C39">
-        <v>-0.05055119703252493</v>
+        <v>-0.01788203077255271</v>
       </c>
       <c r="D39">
-        <v>-0.1292439776483056</v>
+        <v>-0.1526433940908139</v>
       </c>
       <c r="E39">
-        <v>0.1584243602853038</v>
+        <v>0.06131878372544353</v>
       </c>
       <c r="F39">
-        <v>0.008662902456704541</v>
+        <v>-0.03162026747415844</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01158473729390466</v>
+        <v>-0.03697642097223498</v>
       </c>
       <c r="C40">
-        <v>-0.04895094542317689</v>
+        <v>-0.007397598747900713</v>
       </c>
       <c r="D40">
-        <v>-0.01908890801636367</v>
+        <v>-0.03131499362397584</v>
       </c>
       <c r="E40">
-        <v>-0.0424811666285602</v>
+        <v>0.003165062915779547</v>
       </c>
       <c r="F40">
-        <v>0.05238894278142571</v>
+        <v>0.01368697592256868</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02952750122133087</v>
+        <v>-0.02611538284350321</v>
       </c>
       <c r="C41">
-        <v>-0.01051116061795639</v>
+        <v>-0.006814987780645697</v>
       </c>
       <c r="D41">
-        <v>-0.01183004417145029</v>
+        <v>-0.01079549905580302</v>
       </c>
       <c r="E41">
-        <v>0.01272143930753994</v>
+        <v>0.01233414572248967</v>
       </c>
       <c r="F41">
-        <v>0.01409343822683122</v>
+        <v>0.009830691527478909</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.0379881627262767</v>
+        <v>-0.04113187430427961</v>
       </c>
       <c r="C43">
-        <v>-0.001253114669016875</v>
+        <v>-0.006838859081423039</v>
       </c>
       <c r="D43">
-        <v>-0.03071829027423796</v>
+        <v>-0.02038381273023047</v>
       </c>
       <c r="E43">
-        <v>-0.007120669275828752</v>
+        <v>0.02519148826789515</v>
       </c>
       <c r="F43">
-        <v>0.009170564330534141</v>
+        <v>0.01122107402580477</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.1171648339487611</v>
+        <v>-0.07188608803617969</v>
       </c>
       <c r="C44">
-        <v>-0.08135054994235957</v>
+        <v>-0.02202072165460336</v>
       </c>
       <c r="D44">
-        <v>-0.1584731086019497</v>
+        <v>-0.1009464581724208</v>
       </c>
       <c r="E44">
-        <v>-0.07899377014092289</v>
+        <v>0.06792641454866787</v>
       </c>
       <c r="F44">
-        <v>0.1246383749441972</v>
+        <v>-0.1681662240353679</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02433859840333766</v>
+        <v>-0.02180068964848522</v>
       </c>
       <c r="C46">
-        <v>0.01754747200347673</v>
+        <v>-0.004171997327779706</v>
       </c>
       <c r="D46">
-        <v>-0.0280424468331608</v>
+        <v>-0.01130957234661556</v>
       </c>
       <c r="E46">
-        <v>-0.01952302062982929</v>
+        <v>0.02336653603243568</v>
       </c>
       <c r="F46">
-        <v>0.03659445840860159</v>
+        <v>-8.902918226973373e-06</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.03755756967784318</v>
+        <v>-0.05194986169383864</v>
       </c>
       <c r="C47">
-        <v>-0.02378641347053046</v>
+        <v>-0.003346522713678596</v>
       </c>
       <c r="D47">
-        <v>-0.02447569431708335</v>
+        <v>-0.01251462590756994</v>
       </c>
       <c r="E47">
-        <v>0.001608976694522885</v>
+        <v>0.02260044614759128</v>
       </c>
       <c r="F47">
-        <v>0.0149718159127363</v>
+        <v>0.0451187038349174</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04233885383775314</v>
+        <v>-0.04804663853341777</v>
       </c>
       <c r="C48">
-        <v>-0.01270739714707479</v>
+        <v>-0.00328063830475059</v>
       </c>
       <c r="D48">
-        <v>-0.01200037266158211</v>
+        <v>-0.04741104530063429</v>
       </c>
       <c r="E48">
-        <v>0.005836189597748957</v>
+        <v>-0.0042486150760067</v>
       </c>
       <c r="F48">
-        <v>0.01976286739743499</v>
+        <v>-0.01156153910540903</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2230439218852074</v>
+        <v>-0.2033773941563199</v>
       </c>
       <c r="C49">
-        <v>-0.004305714699180794</v>
+        <v>-0.01747312996228882</v>
       </c>
       <c r="D49">
-        <v>0.07123076878102651</v>
+        <v>0.01126234460798435</v>
       </c>
       <c r="E49">
-        <v>0.01331496737261324</v>
+        <v>0.03347972882819469</v>
       </c>
       <c r="F49">
-        <v>0.03918854864172207</v>
+        <v>-0.0365558164197203</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.0395038200557355</v>
+        <v>-0.04823612009652127</v>
       </c>
       <c r="C50">
-        <v>-0.02651840485203389</v>
+        <v>-0.01118144747080054</v>
       </c>
       <c r="D50">
-        <v>-0.01295884161120831</v>
+        <v>-0.02656022489591029</v>
       </c>
       <c r="E50">
-        <v>0.02015130266873284</v>
+        <v>0.02931929410095577</v>
       </c>
       <c r="F50">
-        <v>0.005940893506046449</v>
+        <v>-0.008912032351219347</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01437312330607569</v>
+        <v>-0.002462849143387149</v>
       </c>
       <c r="C51">
-        <v>0.0284874566998944</v>
+        <v>-0.0006365498781282408</v>
       </c>
       <c r="D51">
-        <v>-0.002213757220476946</v>
+        <v>0.002923469127327673</v>
       </c>
       <c r="E51">
-        <v>-0.006393781105142314</v>
+        <v>-0.000445910068727447</v>
       </c>
       <c r="F51">
-        <v>0.01323440089355072</v>
+        <v>-0.005652301590933261</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.09912738976452462</v>
+        <v>-0.1448212794272537</v>
       </c>
       <c r="C52">
-        <v>-0.07918676404013492</v>
+        <v>-0.01349640625173877</v>
       </c>
       <c r="D52">
-        <v>-0.05121746984620208</v>
+        <v>-0.05223834183934522</v>
       </c>
       <c r="E52">
-        <v>0.02587026468437588</v>
+        <v>0.02378915994357165</v>
       </c>
       <c r="F52">
-        <v>0.03097817128156831</v>
+        <v>-0.03454340826505896</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1612777929873198</v>
+        <v>-0.1740271559250401</v>
       </c>
       <c r="C53">
-        <v>-0.04320698709964182</v>
+        <v>-0.01637401495096147</v>
       </c>
       <c r="D53">
-        <v>-0.0264384000190431</v>
+        <v>-0.01249075996924093</v>
       </c>
       <c r="E53">
-        <v>-0.0123363430439042</v>
+        <v>0.03589264901605518</v>
       </c>
       <c r="F53">
-        <v>0.05328168958039086</v>
+        <v>-0.06446175173295834</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.05540141979979547</v>
+        <v>-0.02159136429693282</v>
       </c>
       <c r="C54">
-        <v>-0.04778671372901609</v>
+        <v>-0.01242154091177567</v>
       </c>
       <c r="D54">
-        <v>-0.04204576528854326</v>
+        <v>-0.03422096836724767</v>
       </c>
       <c r="E54">
-        <v>-0.01163047873999435</v>
+        <v>0.01554057912560979</v>
       </c>
       <c r="F54">
-        <v>0.02417464540975514</v>
+        <v>0.005055307270711652</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.0844441585765376</v>
+        <v>-0.114316335126279</v>
       </c>
       <c r="C55">
-        <v>-0.001330933503773545</v>
+        <v>-0.01501834513096988</v>
       </c>
       <c r="D55">
-        <v>-0.06947173265210212</v>
+        <v>-0.01174766665926423</v>
       </c>
       <c r="E55">
-        <v>0.02746899524110885</v>
+        <v>0.03071917394846475</v>
       </c>
       <c r="F55">
-        <v>0.02730462231303475</v>
+        <v>-0.04614784929457805</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1546265228034226</v>
+        <v>-0.1777179551585363</v>
       </c>
       <c r="C56">
-        <v>-0.0463903228094498</v>
+        <v>-0.01375907406201628</v>
       </c>
       <c r="D56">
-        <v>-0.06045748704474475</v>
+        <v>-0.007705631831053658</v>
       </c>
       <c r="E56">
-        <v>0.02963620417492524</v>
+        <v>0.04023564896266544</v>
       </c>
       <c r="F56">
-        <v>0.08141746419817528</v>
+        <v>-0.04048852108389614</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04989813715515036</v>
+        <v>-0.04651032781562181</v>
       </c>
       <c r="C58">
-        <v>-0.03975068161436535</v>
+        <v>-0.002354682387202655</v>
       </c>
       <c r="D58">
-        <v>-0.02190015351411351</v>
+        <v>-0.06449698343772199</v>
       </c>
       <c r="E58">
-        <v>-0.06852207828064538</v>
+        <v>0.02258050923388299</v>
       </c>
       <c r="F58">
-        <v>0.03059801040856813</v>
+        <v>0.04499287108122521</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1921496568128969</v>
+        <v>-0.1717557518874896</v>
       </c>
       <c r="C59">
-        <v>0.2307006397257882</v>
+        <v>-0.01614866006488372</v>
       </c>
       <c r="D59">
-        <v>0.08746898521136459</v>
+        <v>0.2248218843403257</v>
       </c>
       <c r="E59">
-        <v>0.03767768870364922</v>
+        <v>-0.04921135477575422</v>
       </c>
       <c r="F59">
-        <v>-0.01814180627287192</v>
+        <v>0.03242335102949897</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2413102143432135</v>
+        <v>-0.2367248556065581</v>
       </c>
       <c r="C60">
-        <v>-0.1120287262653006</v>
+        <v>0.004071149782287867</v>
       </c>
       <c r="D60">
-        <v>0.01692908428898014</v>
+        <v>-0.04769328166742099</v>
       </c>
       <c r="E60">
-        <v>0.05148963486588541</v>
+        <v>0.007253855274732469</v>
       </c>
       <c r="F60">
-        <v>0.08585024011079283</v>
+        <v>0.0301029923730679</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.1098083373535577</v>
+        <v>-0.08361030111273311</v>
       </c>
       <c r="C61">
-        <v>-0.02590697479536909</v>
+        <v>-0.01398688471322735</v>
       </c>
       <c r="D61">
-        <v>-0.08721522274061765</v>
+        <v>-0.1125586344525193</v>
       </c>
       <c r="E61">
-        <v>0.120537533835212</v>
+        <v>0.04226337551837224</v>
       </c>
       <c r="F61">
-        <v>0.03486018652127548</v>
+        <v>-0.01687361257339325</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1509749117290012</v>
+        <v>-0.1703483393640496</v>
       </c>
       <c r="C62">
-        <v>-0.03282188654300208</v>
+        <v>-0.017735171233187</v>
       </c>
       <c r="D62">
-        <v>-0.03909907938902215</v>
+        <v>-0.01115370009962145</v>
       </c>
       <c r="E62">
-        <v>-0.005543918026724151</v>
+        <v>0.03785191162629482</v>
       </c>
       <c r="F62">
-        <v>0.05989135093324516</v>
+        <v>-0.02165527773526947</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.0417468563521137</v>
+        <v>-0.04284698636490197</v>
       </c>
       <c r="C63">
-        <v>-0.006481917793010408</v>
+        <v>-0.003476758190733343</v>
       </c>
       <c r="D63">
-        <v>-0.02371739372444055</v>
+        <v>-0.05071789954725407</v>
       </c>
       <c r="E63">
-        <v>0.002800345086793835</v>
+        <v>0.02279884018607729</v>
       </c>
       <c r="F63">
-        <v>-0.02995021877479222</v>
+        <v>-0.008069308770739044</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09514300368184503</v>
+        <v>-0.1117982342242076</v>
       </c>
       <c r="C64">
-        <v>-0.03486976698426515</v>
+        <v>-0.01193227654287607</v>
       </c>
       <c r="D64">
-        <v>-0.03356562850710479</v>
+        <v>-0.04276530107887754</v>
       </c>
       <c r="E64">
-        <v>0.01589886843651869</v>
+        <v>0.02172403629823584</v>
       </c>
       <c r="F64">
-        <v>0.06988762469110879</v>
+        <v>-0.02287010267468739</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1149921660500909</v>
+        <v>-0.1443431626623862</v>
       </c>
       <c r="C65">
-        <v>-0.0150827002182147</v>
+        <v>-0.03117248952297411</v>
       </c>
       <c r="D65">
-        <v>-0.01626264678454645</v>
+        <v>0.04206266615102305</v>
       </c>
       <c r="E65">
-        <v>0.0005561295585529818</v>
+        <v>0.000578525506071135</v>
       </c>
       <c r="F65">
-        <v>-0.06269365720405737</v>
+        <v>-0.04195033317027574</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1296092841050942</v>
+        <v>-0.1300287555306801</v>
       </c>
       <c r="C66">
-        <v>-0.06623765759549188</v>
+        <v>-0.01552799897996665</v>
       </c>
       <c r="D66">
-        <v>-0.1358803155122281</v>
+        <v>-0.1408332240633801</v>
       </c>
       <c r="E66">
-        <v>0.1429705324891318</v>
+        <v>0.06812554211978802</v>
       </c>
       <c r="F66">
-        <v>0.02863302952342263</v>
+        <v>-0.03551630843281603</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05220804486966689</v>
+        <v>-0.06251774890411509</v>
       </c>
       <c r="C67">
-        <v>0.02672841170947024</v>
+        <v>-0.003491297116402121</v>
       </c>
       <c r="D67">
-        <v>-0.07540762089701217</v>
+        <v>-0.05279277377727236</v>
       </c>
       <c r="E67">
-        <v>-0.02567764819401678</v>
+        <v>0.0191527914325376</v>
       </c>
       <c r="F67">
-        <v>0.03153096326653582</v>
+        <v>0.03800143092010338</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1187736241450412</v>
+        <v>-0.1162006017228107</v>
       </c>
       <c r="C68">
-        <v>0.2227003802294104</v>
+        <v>-0.0256814197433204</v>
       </c>
       <c r="D68">
-        <v>0.1105985943061168</v>
+        <v>0.2641051531059522</v>
       </c>
       <c r="E68">
-        <v>0.02477478710389449</v>
+        <v>-0.08680203677132028</v>
       </c>
       <c r="F68">
-        <v>-0.06818944298907353</v>
+        <v>-0.03462593276459491</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03278178659136981</v>
+        <v>-0.03932804577356761</v>
       </c>
       <c r="C69">
-        <v>0.03355065894540202</v>
+        <v>-0.001080263980566868</v>
       </c>
       <c r="D69">
-        <v>-0.01902994933014773</v>
+        <v>-0.009135589794920336</v>
       </c>
       <c r="E69">
-        <v>-0.0061835582883503</v>
+        <v>0.02443401489759952</v>
       </c>
       <c r="F69">
-        <v>0.01537055900515611</v>
+        <v>0.01268533845351336</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.03142653162239892</v>
+        <v>-0.06330210281489367</v>
       </c>
       <c r="C70">
-        <v>0.01388556758883633</v>
+        <v>0.0277805487893552</v>
       </c>
       <c r="D70">
-        <v>-0.03561357459359311</v>
+        <v>-0.02720274951956055</v>
       </c>
       <c r="E70">
-        <v>0.04261223840210733</v>
+        <v>-0.04655968708154777</v>
       </c>
       <c r="F70">
-        <v>0.03118610609658488</v>
+        <v>0.2770412336835841</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1367639683689497</v>
+        <v>-0.1353206431028188</v>
       </c>
       <c r="C71">
-        <v>0.2443688326749803</v>
+        <v>-0.02993207671267029</v>
       </c>
       <c r="D71">
-        <v>0.1165725859921532</v>
+        <v>0.2797441122038823</v>
       </c>
       <c r="E71">
-        <v>0.01572359935476371</v>
+        <v>-0.09538502463266658</v>
       </c>
       <c r="F71">
-        <v>-0.02734809092879939</v>
+        <v>-0.04067768793377697</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1415955728336318</v>
+        <v>-0.1403764495069808</v>
       </c>
       <c r="C72">
-        <v>-0.01958910894101098</v>
+        <v>-0.02458087127896712</v>
       </c>
       <c r="D72">
-        <v>-0.01406846916706068</v>
+        <v>-0.004863956654114421</v>
       </c>
       <c r="E72">
-        <v>-0.0196594896908158</v>
+        <v>0.04537033666187826</v>
       </c>
       <c r="F72">
-        <v>0.01342494030172814</v>
+        <v>-0.02248117786919888</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2144168559412971</v>
+        <v>-0.2039125076803532</v>
       </c>
       <c r="C73">
-        <v>0.003156446478752514</v>
+        <v>-0.01143640263495878</v>
       </c>
       <c r="D73">
-        <v>-0.02806713203176102</v>
+        <v>-0.01647548351880544</v>
       </c>
       <c r="E73">
-        <v>0.09544497708668155</v>
+        <v>0.06219302051934253</v>
       </c>
       <c r="F73">
-        <v>0.1443613133353324</v>
+        <v>-0.03741930027187002</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1200204525671953</v>
+        <v>-0.09423839404708652</v>
       </c>
       <c r="C74">
-        <v>-0.04642777527939883</v>
+        <v>-0.01212306989860835</v>
       </c>
       <c r="D74">
-        <v>-0.08160445563421759</v>
+        <v>-0.02153523177687943</v>
       </c>
       <c r="E74">
-        <v>0.005197050781487978</v>
+        <v>0.04799039512711462</v>
       </c>
       <c r="F74">
-        <v>0.03982402168705058</v>
+        <v>-0.04465553804983299</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1111610660221883</v>
+        <v>-0.12975007469461</v>
       </c>
       <c r="C75">
-        <v>-0.05489964424155995</v>
+        <v>-0.0263743547574836</v>
       </c>
       <c r="D75">
-        <v>-0.03657508357656418</v>
+        <v>-0.03426388915249625</v>
       </c>
       <c r="E75">
-        <v>-0.00125431598323452</v>
+        <v>0.06095534672870621</v>
       </c>
       <c r="F75">
-        <v>0.02176169588834481</v>
+        <v>-0.01354725531254679</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.02461112323098105</v>
+        <v>-0.004060234663755094</v>
       </c>
       <c r="C76">
-        <v>0.01974534413842201</v>
+        <v>-0.000951449106319301</v>
       </c>
       <c r="D76">
-        <v>-0.004200007157094543</v>
+        <v>0.002651478173232872</v>
       </c>
       <c r="E76">
-        <v>0.01108043769151652</v>
+        <v>0.0009250148583845468</v>
       </c>
       <c r="F76">
-        <v>0.0229733848888355</v>
+        <v>-0.003899328977414678</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.06679481246846475</v>
+        <v>-0.07900619678813205</v>
       </c>
       <c r="C77">
-        <v>-0.04677599199638644</v>
+        <v>-0.0102484432203923</v>
       </c>
       <c r="D77">
-        <v>-0.01771901733980054</v>
+        <v>-0.1130344247244381</v>
       </c>
       <c r="E77">
-        <v>0.03378844977108043</v>
+        <v>0.03822468345497811</v>
       </c>
       <c r="F77">
-        <v>0.04845422004803222</v>
+        <v>-0.03673799427233595</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1150903608435683</v>
+        <v>-0.1054493605388117</v>
       </c>
       <c r="C78">
-        <v>-0.02058052112680803</v>
+        <v>-0.04171086183349648</v>
       </c>
       <c r="D78">
-        <v>-0.09052817577017588</v>
+        <v>-0.1145369614398911</v>
       </c>
       <c r="E78">
-        <v>-0.2544705072206455</v>
+        <v>0.08123754206378481</v>
       </c>
       <c r="F78">
-        <v>-0.1190231873242962</v>
+        <v>-0.08097896499088196</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1321353002845687</v>
+        <v>-0.1645608790065379</v>
       </c>
       <c r="C79">
-        <v>-0.05915379381418046</v>
+        <v>-0.02033029403183896</v>
       </c>
       <c r="D79">
-        <v>-0.01153621757197174</v>
+        <v>-0.01947440648357311</v>
       </c>
       <c r="E79">
-        <v>-0.01433250045204443</v>
+        <v>0.04991216897908033</v>
       </c>
       <c r="F79">
-        <v>0.04430073685067536</v>
+        <v>-0.005852222359867273</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07430015770698412</v>
+        <v>-0.08030656635211365</v>
       </c>
       <c r="C80">
-        <v>-0.02717089581909041</v>
+        <v>0.0004674280918168805</v>
       </c>
       <c r="D80">
-        <v>-0.1137937722111421</v>
+        <v>-0.05841696833067649</v>
       </c>
       <c r="E80">
-        <v>0.07624459222843888</v>
+        <v>0.03596105100831293</v>
       </c>
       <c r="F80">
-        <v>0.04758779814759568</v>
+        <v>0.01493416371702235</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1387607146558525</v>
+        <v>-0.123229744032308</v>
       </c>
       <c r="C81">
-        <v>-0.06284372429761952</v>
+        <v>-0.03032937272194614</v>
       </c>
       <c r="D81">
-        <v>-0.06032074564503199</v>
+        <v>-0.0186783824761039</v>
       </c>
       <c r="E81">
-        <v>0.006527372869272163</v>
+        <v>0.06006957639793908</v>
       </c>
       <c r="F81">
-        <v>0.0467099317286907</v>
+        <v>-0.004934492491275225</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1524755466960085</v>
+        <v>-0.1636727002128883</v>
       </c>
       <c r="C82">
-        <v>-0.05019255597808701</v>
+        <v>-0.02133246132991524</v>
       </c>
       <c r="D82">
-        <v>-0.05569455646642498</v>
+        <v>-0.0166935609511821</v>
       </c>
       <c r="E82">
-        <v>0.01332132206846128</v>
+        <v>0.03485656472169721</v>
       </c>
       <c r="F82">
-        <v>0.05854740858144171</v>
+        <v>-0.06266587506676025</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.08249672143378114</v>
+        <v>-0.06318949881728184</v>
       </c>
       <c r="C83">
-        <v>-0.1147438722678162</v>
+        <v>-0.003507811111522823</v>
       </c>
       <c r="D83">
-        <v>-0.08656587008424045</v>
+        <v>-0.049766447451613</v>
       </c>
       <c r="E83">
-        <v>-0.02479087325972986</v>
+        <v>0.005503150533824057</v>
       </c>
       <c r="F83">
-        <v>0.01247335630771565</v>
+        <v>0.04162793161553109</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05530462984288911</v>
+        <v>-0.05916129236708075</v>
       </c>
       <c r="C84">
-        <v>0.06469899474545895</v>
+        <v>-0.01126620406471624</v>
       </c>
       <c r="D84">
-        <v>0.08028581117517418</v>
+        <v>-0.06374424207764642</v>
       </c>
       <c r="E84">
-        <v>0.05485312465332417</v>
+        <v>0.001788580698266855</v>
       </c>
       <c r="F84">
-        <v>-0.02931573915250879</v>
+        <v>-0.0107738432527893</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1256372702615018</v>
+        <v>-0.1387829325400039</v>
       </c>
       <c r="C85">
-        <v>-0.04159424566338345</v>
+        <v>-0.02581232772064717</v>
       </c>
       <c r="D85">
-        <v>-0.0293463383694282</v>
+        <v>-0.01627623429827962</v>
       </c>
       <c r="E85">
-        <v>0.0101246245596587</v>
+        <v>0.04147644160323245</v>
       </c>
       <c r="F85">
-        <v>0.06694646908643066</v>
+        <v>-0.04515927086976219</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1790027875142501</v>
+        <v>-0.0968675172121183</v>
       </c>
       <c r="C86">
-        <v>-0.5524531658114709</v>
+        <v>0.007078742313249962</v>
       </c>
       <c r="D86">
-        <v>0.7482525045776821</v>
+        <v>-0.02194375856469887</v>
       </c>
       <c r="E86">
-        <v>-0.02733381479225495</v>
+        <v>0.1540138211701804</v>
       </c>
       <c r="F86">
-        <v>-0.08289781720138821</v>
+        <v>0.866363249757596</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1106558001919236</v>
+        <v>-0.09863244817587931</v>
       </c>
       <c r="C87">
-        <v>-0.08664452563513046</v>
+        <v>-0.02510079415678001</v>
       </c>
       <c r="D87">
-        <v>-0.06807442555661683</v>
+        <v>-0.07714946173225151</v>
       </c>
       <c r="E87">
-        <v>-0.03384235964166299</v>
+        <v>-0.05388207462629724</v>
       </c>
       <c r="F87">
-        <v>0.07670113506674386</v>
+        <v>-0.07923571445716938</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.0498201247050042</v>
+        <v>-0.06108183574683542</v>
       </c>
       <c r="C88">
-        <v>-0.02417689975406021</v>
+        <v>-0.002960996916910946</v>
       </c>
       <c r="D88">
-        <v>-0.04710946213342062</v>
+        <v>-0.05345301408740388</v>
       </c>
       <c r="E88">
-        <v>0.04478321362891405</v>
+        <v>0.02766461368767861</v>
       </c>
       <c r="F88">
-        <v>0.0327505792474146</v>
+        <v>-0.008612726829750648</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1912022660616084</v>
+        <v>-0.135991483870671</v>
       </c>
       <c r="C89">
-        <v>0.3245126812251147</v>
+        <v>-0.008115263926845114</v>
       </c>
       <c r="D89">
-        <v>0.1688595986504706</v>
+        <v>0.2581551150641764</v>
       </c>
       <c r="E89">
-        <v>-0.05334367034898255</v>
+        <v>-0.09157187004798163</v>
       </c>
       <c r="F89">
-        <v>-0.01490901666995758</v>
+        <v>-0.02367162840127632</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1479464445753421</v>
+        <v>-0.1461209532954705</v>
       </c>
       <c r="C90">
-        <v>0.2295652287826327</v>
+        <v>-0.02538486096054618</v>
       </c>
       <c r="D90">
-        <v>0.1135407699673401</v>
+        <v>0.2668358942008174</v>
       </c>
       <c r="E90">
-        <v>0.02945819269147658</v>
+        <v>-0.108637290102779</v>
       </c>
       <c r="F90">
-        <v>-0.01627090351132449</v>
+        <v>-0.02367926319034708</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.08014787962543561</v>
+        <v>-0.1185558779172024</v>
       </c>
       <c r="C91">
-        <v>-0.04426116581134024</v>
+        <v>-0.01669444324628904</v>
       </c>
       <c r="D91">
-        <v>-0.006631309296556803</v>
+        <v>0.007287230398428172</v>
       </c>
       <c r="E91">
-        <v>0.000954924558150688</v>
+        <v>0.05759621803821689</v>
       </c>
       <c r="F91">
-        <v>0.04187069543557068</v>
+        <v>0.02091476972560216</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1663819653407121</v>
+        <v>-0.1493724852350954</v>
       </c>
       <c r="C92">
-        <v>0.277244101072709</v>
+        <v>-0.0172199565416086</v>
       </c>
       <c r="D92">
-        <v>0.1278088484887126</v>
+        <v>0.297516378790283</v>
       </c>
       <c r="E92">
-        <v>-0.0251526525514445</v>
+        <v>-0.1037162634535211</v>
       </c>
       <c r="F92">
-        <v>-0.02159976798716302</v>
+        <v>-0.01911502631489428</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1517632027772074</v>
+        <v>-0.1508500729141787</v>
       </c>
       <c r="C93">
-        <v>0.2680913676509887</v>
+        <v>-0.02197650344418062</v>
       </c>
       <c r="D93">
-        <v>0.1685726443217822</v>
+        <v>0.2700681383903638</v>
       </c>
       <c r="E93">
-        <v>0.05975458833831294</v>
+        <v>-0.07437485636821074</v>
       </c>
       <c r="F93">
-        <v>-0.03120391799983248</v>
+        <v>-0.01675855966275986</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1317567611793809</v>
+        <v>-0.1331307543629043</v>
       </c>
       <c r="C94">
-        <v>-0.02492964372668857</v>
+        <v>-0.02379551156126954</v>
       </c>
       <c r="D94">
-        <v>-0.06506744432682339</v>
+        <v>-0.04627124751840048</v>
       </c>
       <c r="E94">
-        <v>-0.01910003780167778</v>
+        <v>0.06161322071179558</v>
       </c>
       <c r="F94">
-        <v>0.04096386404067606</v>
+        <v>-0.03139634925799172</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1126057041007548</v>
+        <v>-0.1255050134537804</v>
       </c>
       <c r="C95">
-        <v>-0.01989052447930575</v>
+        <v>-0.005343253938324041</v>
       </c>
       <c r="D95">
-        <v>-0.0519608517019698</v>
+        <v>-0.09102468579777642</v>
       </c>
       <c r="E95">
-        <v>-0.009747545585091014</v>
+        <v>0.04454157258908083</v>
       </c>
       <c r="F95">
-        <v>0.03684942329282746</v>
+        <v>0.01277922741851914</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0.00942052122566525</v>
+        <v>-0.09865854182759651</v>
       </c>
       <c r="C96">
-        <v>-0.0005696655039885475</v>
+        <v>0.9889362227535656</v>
       </c>
       <c r="D96">
-        <v>-0.004336750876450796</v>
+        <v>0.0279805307728662</v>
       </c>
       <c r="E96">
-        <v>-0.004989047000637603</v>
+        <v>0.05758955840739874</v>
       </c>
       <c r="F96">
-        <v>-0.003199582038086088</v>
+        <v>-0.0479562329464841</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.17423409805196</v>
+        <v>-0.1884595110923133</v>
       </c>
       <c r="C97">
-        <v>-0.09059878194490627</v>
+        <v>0.01096328997749626</v>
       </c>
       <c r="D97">
-        <v>-0.1972044921547853</v>
+        <v>0.006959107369022667</v>
       </c>
       <c r="E97">
-        <v>-0.1560719394609213</v>
+        <v>0.0190753025789513</v>
       </c>
       <c r="F97">
-        <v>-0.8856877896142857</v>
+        <v>0.1742947566533716</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2446773462892024</v>
+        <v>-0.2051611715456058</v>
       </c>
       <c r="C98">
-        <v>-0.05651697836756249</v>
+        <v>-0.00705466785773854</v>
       </c>
       <c r="D98">
-        <v>0.001073252089566445</v>
+        <v>-0.01044957815627255</v>
       </c>
       <c r="E98">
-        <v>-0.08455778163773467</v>
+        <v>-0.09897540706280916</v>
       </c>
       <c r="F98">
-        <v>0.03410533308710738</v>
+        <v>0.112658992760726</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.04644977076144984</v>
+        <v>-0.05627022707480692</v>
       </c>
       <c r="C99">
-        <v>0.02915931852923362</v>
+        <v>0.003818941183740933</v>
       </c>
       <c r="D99">
-        <v>-0.0402774835566483</v>
+        <v>-0.03560023401086927</v>
       </c>
       <c r="E99">
-        <v>0.0001651533947280042</v>
+        <v>0.02669289334035459</v>
       </c>
       <c r="F99">
-        <v>0.01918014906527644</v>
+        <v>-0.004736179806640655</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.02259674706128352</v>
+        <v>-0.1243802721958434</v>
       </c>
       <c r="C100">
-        <v>0.009564111844619392</v>
+        <v>0.04944680748449869</v>
       </c>
       <c r="D100">
-        <v>-0.1352186700001258</v>
+        <v>-0.3466026157501973</v>
       </c>
       <c r="E100">
-        <v>0.03705123839215242</v>
+        <v>-0.894656040906068</v>
       </c>
       <c r="F100">
-        <v>-0.05125006458493842</v>
+        <v>0.07799566740837709</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.03284756623492038</v>
+        <v>-0.0268463786121781</v>
       </c>
       <c r="C101">
-        <v>-0.01107916567295813</v>
+        <v>-0.008818162600988728</v>
       </c>
       <c r="D101">
-        <v>-0.03330187520751064</v>
+        <v>-0.03076327944528124</v>
       </c>
       <c r="E101">
-        <v>0.03084422574126989</v>
+        <v>0.01140223741573952</v>
       </c>
       <c r="F101">
-        <v>0.0423357839829388</v>
+        <v>0.01444260954054711</v>
       </c>
     </row>
     <row r="102" spans="1:6">
